--- a/Code/Results/Cases/Case_2_254/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_254/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.3294945176259</v>
+        <v>14.14795727283463</v>
       </c>
       <c r="C2">
-        <v>7.264066964167569</v>
+        <v>10.55635688124185</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>10.23844237368483</v>
+        <v>15.63813085493678</v>
       </c>
       <c r="F2">
-        <v>29.16032781464375</v>
+        <v>41.39517530451591</v>
       </c>
       <c r="G2">
-        <v>2.12162146925316</v>
+        <v>3.684834061996117</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,13 +445,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5.888936940857183</v>
+        <v>8.76890932344336</v>
       </c>
       <c r="K2">
-        <v>11.0065865613187</v>
+        <v>9.782609893465249</v>
       </c>
       <c r="L2">
-        <v>8.074766711605157</v>
+        <v>11.99414111826208</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>18.17754364799668</v>
+        <v>28.05351144098294</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.43979106260753</v>
+        <v>13.92443809128069</v>
       </c>
       <c r="C3">
-        <v>7.324697356712116</v>
+        <v>10.57707018133788</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>10.00569893020309</v>
+        <v>15.63398402917329</v>
       </c>
       <c r="F3">
-        <v>28.68745463215323</v>
+        <v>41.43800736263194</v>
       </c>
       <c r="G3">
-        <v>2.126668260740398</v>
+        <v>3.686698010628028</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,13 +492,13 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>5.896937834538993</v>
+        <v>8.771442268996324</v>
       </c>
       <c r="K3">
-        <v>10.37742591742226</v>
+        <v>9.624193686114985</v>
       </c>
       <c r="L3">
-        <v>7.808663685956711</v>
+        <v>11.97088608352323</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>18.30522614817725</v>
+        <v>28.15510614397759</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.86650640474596</v>
+        <v>13.7877875818843</v>
       </c>
       <c r="C4">
-        <v>7.3632968668898</v>
+        <v>10.59049630267863</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>9.864868675388886</v>
+        <v>15.63380293202275</v>
       </c>
       <c r="F4">
-        <v>28.4158464319227</v>
+        <v>41.47340978334444</v>
       </c>
       <c r="G4">
-        <v>2.129861467527612</v>
+        <v>3.687902996611994</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,13 +539,13 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>5.902267513198467</v>
+        <v>8.773191473528511</v>
       </c>
       <c r="K4">
-        <v>9.971138230999006</v>
+        <v>9.526977778973251</v>
       </c>
       <c r="L4">
-        <v>7.643747400769123</v>
+        <v>11.95824025331951</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>18.3974297559866</v>
+        <v>28.22273393862956</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.62620881213139</v>
+        <v>13.73231912629837</v>
       </c>
       <c r="C5">
-        <v>7.379373583434982</v>
+        <v>10.59614611337222</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>9.808067533711245</v>
+        <v>15.63432569612871</v>
       </c>
       <c r="F5">
-        <v>28.30989017136807</v>
+        <v>41.49012386683177</v>
       </c>
       <c r="G5">
-        <v>2.131187041067184</v>
+        <v>3.688409302512838</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,13 +586,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>5.904545151110103</v>
+        <v>8.773953243877965</v>
       </c>
       <c r="K5">
-        <v>9.800594892796285</v>
+        <v>9.487422472546225</v>
       </c>
       <c r="L5">
-        <v>7.576253484729039</v>
+        <v>11.95350119902789</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>18.43833295480978</v>
+        <v>28.25161106061371</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.58590806226321</v>
+        <v>13.72312380698254</v>
       </c>
       <c r="C6">
-        <v>7.382064135412861</v>
+        <v>10.59709505950918</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>9.798673231642107</v>
+        <v>15.63444858095169</v>
       </c>
       <c r="F6">
-        <v>28.29258180570091</v>
+        <v>41.49303730604679</v>
       </c>
       <c r="G6">
-        <v>2.131408636203045</v>
+        <v>3.68849429755015</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,13 +633,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>5.904929762663996</v>
+        <v>8.774082697353744</v>
       </c>
       <c r="K6">
-        <v>9.771977330584168</v>
+        <v>9.480859432686268</v>
       </c>
       <c r="L6">
-        <v>7.565031622350449</v>
+        <v>11.95273940152951</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>18.44532194999253</v>
+        <v>28.25648566060707</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.86329254128677</v>
+        <v>13.78703854178872</v>
       </c>
       <c r="C7">
-        <v>7.363512274929768</v>
+        <v>10.59057177435242</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>9.864100165001698</v>
+        <v>15.63380756447358</v>
       </c>
       <c r="F7">
-        <v>28.41439832373593</v>
+        <v>41.47362593712874</v>
       </c>
       <c r="G7">
-        <v>2.129879245492631</v>
+        <v>3.687909762962282</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,13 +680,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>5.902297800924845</v>
+        <v>8.773201548574541</v>
       </c>
       <c r="K7">
-        <v>9.968858305784389</v>
+        <v>9.526444011911877</v>
       </c>
       <c r="L7">
-        <v>7.642838194262179</v>
+        <v>11.95817465900166</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>18.39796809334424</v>
+        <v>28.22311805002837</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.02838572534327</v>
+        <v>14.07080647129767</v>
       </c>
       <c r="C8">
-        <v>7.284688743165216</v>
+        <v>10.56335217192042</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>10.15780140960885</v>
+        <v>15.63621133298689</v>
       </c>
       <c r="F8">
-        <v>28.99340502965281</v>
+        <v>41.40805355452097</v>
       </c>
       <c r="G8">
-        <v>2.123342346207441</v>
+        <v>3.685464220507692</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,13 +727,13 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>5.891609618754905</v>
+        <v>8.769742533823802</v>
       </c>
       <c r="K8">
-        <v>10.79382196891469</v>
+        <v>9.72800565022791</v>
       </c>
       <c r="L8">
-        <v>7.983386219096494</v>
+        <v>11.98578613787968</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>18.21861577053341</v>
+        <v>28.08745114840694</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.18090698015736</v>
+        <v>14.62896171652516</v>
       </c>
       <c r="C9">
-        <v>7.140912794565272</v>
+        <v>10.51556984027779</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>10.74735905497372</v>
+        <v>15.65960162124306</v>
       </c>
       <c r="F9">
-        <v>30.27627402959141</v>
+        <v>41.35174580608121</v>
       </c>
       <c r="G9">
-        <v>2.111246062178199</v>
+        <v>3.68114649602339</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,13 +774,13 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>5.87391792494984</v>
+        <v>8.764490595428493</v>
       </c>
       <c r="K9">
-        <v>12.25175788890275</v>
+        <v>10.12161570077297</v>
       </c>
       <c r="L9">
-        <v>8.635299496353149</v>
+        <v>12.05271846411261</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>17.98312341297996</v>
+        <v>27.86311611421303</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.65637457907992</v>
+        <v>15.03612494223855</v>
       </c>
       <c r="C10">
-        <v>7.041739974986763</v>
+        <v>10.48384314828742</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>11.18516226459955</v>
+        <v>15.68804038740247</v>
       </c>
       <c r="F10">
-        <v>31.30641581568649</v>
+        <v>41.35445818437199</v>
       </c>
       <c r="G10">
-        <v>2.102759715854329</v>
+        <v>3.678262603623592</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,13 +821,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>5.862849756703568</v>
+        <v>8.761555035733771</v>
       </c>
       <c r="K10">
-        <v>13.22465881593167</v>
+        <v>10.40709759809119</v>
       </c>
       <c r="L10">
-        <v>9.100107620279651</v>
+        <v>12.10944644472049</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>17.89055890466964</v>
+        <v>27.72381110266386</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.29259112150256</v>
+        <v>15.21991995352962</v>
       </c>
       <c r="C11">
-        <v>6.998002227189396</v>
+        <v>10.47013681163775</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>11.38464062889448</v>
+        <v>15.70338855199025</v>
       </c>
       <c r="F11">
-        <v>31.7934771876968</v>
+        <v>41.3652488361864</v>
       </c>
       <c r="G11">
-        <v>2.098976742702285</v>
+        <v>3.677012608184878</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,13 +868,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>5.858218459118512</v>
+        <v>8.760417804766165</v>
       </c>
       <c r="K11">
-        <v>13.64595645408678</v>
+        <v>10.53562232591092</v>
       </c>
       <c r="L11">
-        <v>9.307718081954421</v>
+        <v>12.13683660476094</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>17.86811410796986</v>
+        <v>27.66599652229385</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.52854520881903</v>
+        <v>15.28924950428938</v>
       </c>
       <c r="C12">
-        <v>6.981636198915213</v>
+        <v>10.4650505111757</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>11.46017127481291</v>
+        <v>15.70954398029002</v>
       </c>
       <c r="F12">
-        <v>31.98051237713958</v>
+        <v>41.37070616780417</v>
       </c>
       <c r="G12">
-        <v>2.097554555669454</v>
+        <v>3.676548119792136</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,13 +915,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>5.856521359456251</v>
+        <v>8.76001547834853</v>
       </c>
       <c r="K12">
-        <v>13.80244294172539</v>
+        <v>10.58405512770397</v>
       </c>
       <c r="L12">
-        <v>9.385730724152726</v>
+        <v>12.14743111715379</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>17.86263191663837</v>
+        <v>27.64490419410849</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.47794817075409</v>
+        <v>15.27433113729105</v>
       </c>
       <c r="C13">
-        <v>6.985152197065372</v>
+        <v>10.46614131900433</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>11.44390552572533</v>
+        <v>15.70820308089404</v>
       </c>
       <c r="F13">
-        <v>31.94011643673237</v>
+        <v>41.36946991196854</v>
       </c>
       <c r="G13">
-        <v>2.097860402447109</v>
+        <v>3.676647762417951</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>5.856884362982254</v>
+        <v>8.760100869916487</v>
       </c>
       <c r="K13">
-        <v>13.76887618171052</v>
+        <v>10.57363546013832</v>
       </c>
       <c r="L13">
-        <v>9.368956977482924</v>
+        <v>12.14513959372767</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>17.86367533138713</v>
+        <v>27.64941115928832</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.3121023901875</v>
+        <v>15.22562950181347</v>
       </c>
       <c r="C14">
-        <v>6.996651853442583</v>
+        <v>10.46971627703641</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>11.39085501773704</v>
+        <v>15.70388810021375</v>
       </c>
       <c r="F14">
-        <v>31.80881298116368</v>
+        <v>41.36567035573568</v>
       </c>
       <c r="G14">
-        <v>2.09885953602121</v>
+        <v>3.676974217171219</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,13 +1009,13 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>5.858077710240841</v>
+        <v>8.760384138610384</v>
       </c>
       <c r="K14">
-        <v>13.6588917310797</v>
+        <v>10.53961190915945</v>
       </c>
       <c r="L14">
-        <v>9.314148630927956</v>
+        <v>12.13770379498553</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>17.86760150851061</v>
+        <v>27.6642451840002</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.20987207596307</v>
+        <v>15.19576135763708</v>
       </c>
       <c r="C15">
-        <v>7.003721276713057</v>
+        <v>10.47191957164144</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>11.35835757982435</v>
+        <v>15.70128966943733</v>
       </c>
       <c r="F15">
-        <v>31.72872220678363</v>
+        <v>41.36352147200401</v>
       </c>
       <c r="G15">
-        <v>2.099472856395728</v>
+        <v>3.677175332385971</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,13 +1056,13 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>5.858816007336504</v>
+        <v>8.760561331448146</v>
       </c>
       <c r="K15">
-        <v>13.59112632740715</v>
+        <v>10.51873941048346</v>
       </c>
       <c r="L15">
-        <v>9.280496703385154</v>
+        <v>12.13317796006744</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>17.87040506142996</v>
+        <v>27.6734357948418</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.6140977522615</v>
+        <v>15.02407923381707</v>
       </c>
       <c r="C16">
-        <v>7.044625911888606</v>
+        <v>10.48475346605182</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>11.17212762785205</v>
+        <v>15.68708559075819</v>
       </c>
       <c r="F16">
-        <v>31.27495147289551</v>
+        <v>41.35394505421902</v>
       </c>
       <c r="G16">
-        <v>2.103008434274832</v>
+        <v>3.678345535646931</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,13 +1103,13 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>5.863160431051497</v>
+        <v>8.761633328891282</v>
       </c>
       <c r="K16">
-        <v>13.1966985360919</v>
+        <v>10.39866741317885</v>
       </c>
       <c r="L16">
-        <v>9.086457871747747</v>
+        <v>12.10768786037348</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>17.89243746804429</v>
+        <v>27.72770138096946</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.23969409755183</v>
+        <v>14.91834586353019</v>
       </c>
       <c r="C17">
-        <v>7.07007105904028</v>
+        <v>10.49281234506189</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>11.05792377173658</v>
+        <v>15.67898713965982</v>
       </c>
       <c r="F17">
-        <v>31.0012611202939</v>
+        <v>41.35051606263552</v>
       </c>
       <c r="G17">
-        <v>2.105196693608814</v>
+        <v>3.679079240790593</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,13 +1150,13 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>5.865928044071856</v>
+        <v>8.76234159375826</v>
       </c>
       <c r="K17">
-        <v>12.94928463648799</v>
+        <v>10.32463161150768</v>
       </c>
       <c r="L17">
-        <v>8.966398686697088</v>
+        <v>12.09245254828208</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>17.91112281399996</v>
+        <v>27.76241590499921</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.02105054173119</v>
+        <v>14.85740034907772</v>
       </c>
       <c r="C18">
-        <v>7.084836069772825</v>
+        <v>10.49751598785455</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>10.99226969168487</v>
+        <v>15.67455629565666</v>
       </c>
       <c r="F18">
-        <v>30.84558117148267</v>
+        <v>41.3494435763442</v>
       </c>
       <c r="G18">
-        <v>2.106462669015766</v>
+        <v>3.679507077648061</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,13 +1197,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>5.867557986427453</v>
+        <v>8.762767632307574</v>
       </c>
       <c r="K18">
-        <v>12.80497466003422</v>
+        <v>10.28192431621746</v>
       </c>
       <c r="L18">
-        <v>8.896985704825132</v>
+        <v>12.08383906019041</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>17.92370918985236</v>
+        <v>27.78290562513923</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.94645353600848</v>
+        <v>14.83674484835437</v>
       </c>
       <c r="C19">
-        <v>7.089857559839322</v>
+        <v>10.49912032007887</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>10.9700477211507</v>
+        <v>15.6730952018494</v>
       </c>
       <c r="F19">
-        <v>30.79317113290112</v>
+        <v>41.3492350669416</v>
       </c>
       <c r="G19">
-        <v>2.106892591923469</v>
+        <v>3.679652938340693</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,13 +1244,13 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>5.868116437827839</v>
+        <v>8.762915092522858</v>
       </c>
       <c r="K19">
-        <v>12.75576938692779</v>
+        <v>10.26744444955728</v>
       </c>
       <c r="L19">
-        <v>8.873423930250597</v>
+        <v>12.08094851073103</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>17.92828090433942</v>
+        <v>27.78993283440256</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.27989072960854</v>
+        <v>14.92961534178062</v>
       </c>
       <c r="C20">
-        <v>7.067348973822567</v>
+        <v>10.49194738892463</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>11.07007795979978</v>
+        <v>15.67982574552652</v>
       </c>
       <c r="F20">
-        <v>31.03021631095918</v>
+        <v>41.35078798016928</v>
       </c>
       <c r="G20">
-        <v>2.104962994980265</v>
+        <v>3.679000533656385</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,13 +1291,13 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>5.865629494895911</v>
+        <v>8.762264267458796</v>
       </c>
       <c r="K20">
-        <v>12.97582962714944</v>
+        <v>10.33252599070481</v>
       </c>
       <c r="L20">
-        <v>8.979216671207171</v>
+        <v>12.09405894279891</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>17.90894203748519</v>
+        <v>27.75866635871119</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.36094961485427</v>
+        <v>15.23994217210802</v>
       </c>
       <c r="C21">
-        <v>6.993268802959876</v>
+        <v>10.46866340644314</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>11.40643784048461</v>
+        <v>15.70514622225374</v>
       </c>
       <c r="F21">
-        <v>31.84730998412012</v>
+        <v>41.36674919478207</v>
       </c>
       <c r="G21">
-        <v>2.098565792232399</v>
+        <v>3.676878089446418</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>5.857725668745846</v>
+        <v>8.760300168599326</v>
       </c>
       <c r="K21">
-        <v>13.69127948532906</v>
+        <v>10.54961221379119</v>
       </c>
       <c r="L21">
-        <v>9.330263975551947</v>
+        <v>12.13988187598698</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>17.86636486873242</v>
+        <v>27.65986632321766</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.03856164690455</v>
+        <v>15.4411590505419</v>
       </c>
       <c r="C22">
-        <v>6.945997992204207</v>
+        <v>10.45405191748496</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>11.62620391445594</v>
+        <v>15.72369456558406</v>
       </c>
       <c r="F22">
-        <v>32.39643335579417</v>
+        <v>41.38517070115892</v>
       </c>
       <c r="G22">
-        <v>2.094444724655026</v>
+        <v>3.675542559214073</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,13 +1385,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>5.852889658207593</v>
+        <v>8.759181494309932</v>
       </c>
       <c r="K22">
-        <v>14.1411002466543</v>
+        <v>10.69009196030525</v>
       </c>
       <c r="L22">
-        <v>9.556148577297797</v>
+        <v>12.1711237821503</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>17.85621679216147</v>
+        <v>27.59996330219246</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.67953237646514</v>
+        <v>15.33393282769697</v>
       </c>
       <c r="C23">
-        <v>6.971122983543659</v>
+        <v>10.46179504728504</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>11.50893279177029</v>
+        <v>15.71361313189267</v>
       </c>
       <c r="F23">
-        <v>32.10199166275778</v>
+        <v>41.37460900603189</v>
       </c>
       <c r="G23">
-        <v>2.096639016797262</v>
+        <v>3.676250648864136</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>5.855441058095047</v>
+        <v>8.759763515246075</v>
       </c>
       <c r="K23">
-        <v>13.90264302376734</v>
+        <v>10.61525716881467</v>
       </c>
       <c r="L23">
-        <v>9.435929700493626</v>
+        <v>12.15433282571813</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>17.85995121539472</v>
+        <v>27.63150689461623</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.26172840825481</v>
+        <v>14.92452089781873</v>
       </c>
       <c r="C24">
-        <v>7.068579204030002</v>
+        <v>10.49233821600422</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>11.06458303717264</v>
+        <v>15.67944591052535</v>
       </c>
       <c r="F24">
-        <v>31.01712046857743</v>
+        <v>41.35066224604888</v>
       </c>
       <c r="G24">
-        <v>2.105068625413776</v>
+        <v>3.679036098396571</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,13 +1479,13 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>5.865764348007789</v>
+        <v>8.762299167951314</v>
       </c>
       <c r="K24">
-        <v>12.96383508026679</v>
+        <v>10.32895738432959</v>
       </c>
       <c r="L24">
-        <v>8.973422868998144</v>
+        <v>12.09333223823598</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>17.9099222374315</v>
+        <v>27.76035987193002</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.60612672588769</v>
+        <v>14.47819839485066</v>
       </c>
       <c r="C25">
-        <v>7.178665199101752</v>
+        <v>10.5279005507609</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>10.58679865671486</v>
+        <v>15.65128708814093</v>
       </c>
       <c r="F25">
-        <v>29.91364233788038</v>
+        <v>41.3592349115696</v>
       </c>
       <c r="G25">
-        <v>2.114445036702857</v>
+        <v>3.682263700534505</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,13 +1526,13 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>5.878360276570358</v>
+        <v>8.765748536840237</v>
       </c>
       <c r="K25">
-        <v>11.87458204092665</v>
+        <v>10.01559394146862</v>
       </c>
       <c r="L25">
-        <v>8.461135000235736</v>
+        <v>12.03326656059662</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>18.03342225123505</v>
+        <v>27.91933049282319</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_254/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_254/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.14795727283463</v>
+        <v>14.32949451762587</v>
       </c>
       <c r="C2">
-        <v>10.55635688124185</v>
+        <v>7.264066964167301</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>15.63813085493678</v>
+        <v>10.23844237368474</v>
       </c>
       <c r="F2">
-        <v>41.39517530451591</v>
+        <v>29.16032781464365</v>
       </c>
       <c r="G2">
-        <v>3.684834061996117</v>
+        <v>2.121621469252894</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,13 +445,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>8.76890932344336</v>
+        <v>5.888936940857083</v>
       </c>
       <c r="K2">
-        <v>9.782609893465249</v>
+        <v>11.00658656131874</v>
       </c>
       <c r="L2">
-        <v>11.99414111826208</v>
+        <v>8.074766711605157</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>28.05351144098294</v>
+        <v>18.17754364799659</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.92443809128069</v>
+        <v>13.43979106260753</v>
       </c>
       <c r="C3">
-        <v>10.57707018133788</v>
+        <v>7.32469735671225</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>15.63398402917329</v>
+        <v>10.00569893020319</v>
       </c>
       <c r="F3">
-        <v>41.43800736263194</v>
+        <v>28.68745463215314</v>
       </c>
       <c r="G3">
-        <v>3.686698010628028</v>
+        <v>2.1266682607404</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,13 +492,13 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>8.771442268996324</v>
+        <v>5.896937834538926</v>
       </c>
       <c r="K3">
-        <v>9.624193686114985</v>
+        <v>10.37742591742235</v>
       </c>
       <c r="L3">
-        <v>11.97088608352323</v>
+        <v>7.808663685956745</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>28.15510614397759</v>
+        <v>18.30522614817699</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.7877875818843</v>
+        <v>12.86650640474594</v>
       </c>
       <c r="C4">
-        <v>10.59049630267863</v>
+        <v>7.363296866889669</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>15.63380293202275</v>
+        <v>9.864868675388839</v>
       </c>
       <c r="F4">
-        <v>41.47340978334444</v>
+        <v>28.41584643192288</v>
       </c>
       <c r="G4">
-        <v>3.687902996611994</v>
+        <v>2.129861467527614</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,13 +539,13 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>8.773191473528511</v>
+        <v>5.9022675131985</v>
       </c>
       <c r="K4">
-        <v>9.526977778973251</v>
+        <v>9.971138230999014</v>
       </c>
       <c r="L4">
-        <v>11.95824025331951</v>
+        <v>7.643747400769123</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>28.22273393862956</v>
+        <v>18.39742975598681</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.73231912629837</v>
+        <v>12.62620881213138</v>
       </c>
       <c r="C5">
-        <v>10.59614611337222</v>
+        <v>7.379373583434851</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>15.63432569612871</v>
+        <v>9.808067533711293</v>
       </c>
       <c r="F5">
-        <v>41.49012386683177</v>
+        <v>28.30989017136813</v>
       </c>
       <c r="G5">
-        <v>3.688409302512838</v>
+        <v>2.13118704106705</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,13 +586,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>8.773953243877965</v>
+        <v>5.904545151110169</v>
       </c>
       <c r="K5">
-        <v>9.487422472546225</v>
+        <v>9.800594892796234</v>
       </c>
       <c r="L5">
-        <v>11.95350119902789</v>
+        <v>7.576253484729041</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>28.25161106061371</v>
+        <v>18.43833295480989</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.72312380698254</v>
+        <v>12.58590806226319</v>
       </c>
       <c r="C6">
-        <v>10.59709505950918</v>
+        <v>7.382064135413398</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>15.63444858095169</v>
+        <v>9.79867323164205</v>
       </c>
       <c r="F6">
-        <v>41.49303730604679</v>
+        <v>28.29258180570088</v>
       </c>
       <c r="G6">
-        <v>3.68849429755015</v>
+        <v>2.131408636203046</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,13 +633,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>8.774082697353744</v>
+        <v>5.904929762663824</v>
       </c>
       <c r="K6">
-        <v>9.480859432686268</v>
+        <v>9.771977330584248</v>
       </c>
       <c r="L6">
-        <v>11.95273940152951</v>
+        <v>7.56503162235038</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>28.25648566060707</v>
+        <v>18.44532194999237</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.78703854178872</v>
+        <v>12.86329254128675</v>
       </c>
       <c r="C7">
-        <v>10.59057177435242</v>
+        <v>7.363512274929363</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>15.63380756447358</v>
+        <v>9.864100165001735</v>
       </c>
       <c r="F7">
-        <v>41.47362593712874</v>
+        <v>28.41439832373574</v>
       </c>
       <c r="G7">
-        <v>3.687909762962282</v>
+        <v>2.129879245492364</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,13 +680,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>8.773201548574541</v>
+        <v>5.902297800924806</v>
       </c>
       <c r="K7">
-        <v>9.526444011911877</v>
+        <v>9.968858305784426</v>
       </c>
       <c r="L7">
-        <v>11.95817465900166</v>
+        <v>7.642838194262246</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>28.22311805002837</v>
+        <v>18.39796809334404</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.07080647129767</v>
+        <v>14.02838572534329</v>
       </c>
       <c r="C8">
-        <v>10.56335217192042</v>
+        <v>7.284688743165485</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>15.63621133298689</v>
+        <v>10.1578014096089</v>
       </c>
       <c r="F8">
-        <v>41.40805355452097</v>
+        <v>28.99340502965303</v>
       </c>
       <c r="G8">
-        <v>3.685464220507692</v>
+        <v>2.123342346207577</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,13 +727,13 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>8.769742533823802</v>
+        <v>5.891609618754873</v>
       </c>
       <c r="K8">
-        <v>9.72800565022791</v>
+        <v>10.79382196891467</v>
       </c>
       <c r="L8">
-        <v>11.98578613787968</v>
+        <v>7.983386219096531</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>28.08745114840694</v>
+        <v>18.21861577053349</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.62896171652516</v>
+        <v>16.18090698015741</v>
       </c>
       <c r="C9">
-        <v>10.51556984027779</v>
+        <v>7.140912794565406</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>15.65960162124306</v>
+        <v>10.74735905497382</v>
       </c>
       <c r="F9">
-        <v>41.35174580608121</v>
+        <v>30.27627402959136</v>
       </c>
       <c r="G9">
-        <v>3.68114649602339</v>
+        <v>2.111246062178065</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,13 +774,13 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>8.764490595428493</v>
+        <v>5.873917924949843</v>
       </c>
       <c r="K9">
-        <v>10.12161570077297</v>
+        <v>12.2517578889028</v>
       </c>
       <c r="L9">
-        <v>12.05271846411261</v>
+        <v>8.635299496353213</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>27.86311611421303</v>
+        <v>17.9831234129798</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.03612494223855</v>
+        <v>17.65637457907993</v>
       </c>
       <c r="C10">
-        <v>10.48384314828742</v>
+        <v>7.041739974986627</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>15.68804038740247</v>
+        <v>11.18516226459959</v>
       </c>
       <c r="F10">
-        <v>41.35445818437199</v>
+        <v>31.30641581568658</v>
       </c>
       <c r="G10">
-        <v>3.678262603623592</v>
+        <v>2.102759715854329</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,13 +821,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>8.761555035733771</v>
+        <v>5.862849756703596</v>
       </c>
       <c r="K10">
-        <v>10.40709759809119</v>
+        <v>13.22465881593168</v>
       </c>
       <c r="L10">
-        <v>12.10944644472049</v>
+        <v>9.100107620279694</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>27.72381110266386</v>
+        <v>17.89055890466965</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.21991995352962</v>
+        <v>18.29259112150257</v>
       </c>
       <c r="C11">
-        <v>10.47013681163775</v>
+        <v>6.998002227189396</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>15.70338855199025</v>
+        <v>11.38464062889448</v>
       </c>
       <c r="F11">
-        <v>41.3652488361864</v>
+        <v>31.79347718769675</v>
       </c>
       <c r="G11">
-        <v>3.677012608184878</v>
+        <v>2.098976742702418</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,13 +868,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>8.760417804766165</v>
+        <v>5.858218459118544</v>
       </c>
       <c r="K11">
-        <v>10.53562232591092</v>
+        <v>13.64595645408678</v>
       </c>
       <c r="L11">
-        <v>12.13683660476094</v>
+        <v>9.307718081954402</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>27.66599652229385</v>
+        <v>17.8681141079698</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.28924950428938</v>
+        <v>18.52854520881908</v>
       </c>
       <c r="C12">
-        <v>10.4650505111757</v>
+        <v>6.981636198915078</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>15.70954398029002</v>
+        <v>11.46017127481293</v>
       </c>
       <c r="F12">
-        <v>41.37070616780417</v>
+        <v>31.98051237713945</v>
       </c>
       <c r="G12">
-        <v>3.676548119792136</v>
+        <v>2.097554555669321</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,13 +915,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>8.76001547834853</v>
+        <v>5.85652135945619</v>
       </c>
       <c r="K12">
-        <v>10.58405512770397</v>
+        <v>13.80244294172544</v>
       </c>
       <c r="L12">
-        <v>12.14743111715379</v>
+        <v>9.385730724152747</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>27.64490419410849</v>
+        <v>17.86263191663817</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.27433113729105</v>
+        <v>18.47794817075413</v>
       </c>
       <c r="C13">
-        <v>10.46614131900433</v>
+        <v>6.985152197065239</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>15.70820308089404</v>
+        <v>11.44390552572536</v>
       </c>
       <c r="F13">
-        <v>41.36946991196854</v>
+        <v>31.94011643673238</v>
       </c>
       <c r="G13">
-        <v>3.676647762417951</v>
+        <v>2.097860402447241</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>8.760100869916487</v>
+        <v>5.856884362982285</v>
       </c>
       <c r="K13">
-        <v>10.57363546013832</v>
+        <v>13.76887618171057</v>
       </c>
       <c r="L13">
-        <v>12.14513959372767</v>
+        <v>9.368956977482943</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>27.64941115928832</v>
+        <v>17.86367533138714</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.22562950181347</v>
+        <v>18.31210239018753</v>
       </c>
       <c r="C14">
-        <v>10.46971627703641</v>
+        <v>6.996651853442446</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>15.70388810021375</v>
+        <v>11.39085501773709</v>
       </c>
       <c r="F14">
-        <v>41.36567035573568</v>
+        <v>31.80881298116369</v>
       </c>
       <c r="G14">
-        <v>3.676974217171219</v>
+        <v>2.098859536021478</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,13 +1009,13 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>8.760384138610384</v>
+        <v>5.858077710240779</v>
       </c>
       <c r="K14">
-        <v>10.53961190915945</v>
+        <v>13.65889173107971</v>
       </c>
       <c r="L14">
-        <v>12.13770379498553</v>
+        <v>9.314148630928004</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>27.6642451840002</v>
+        <v>17.86760150851051</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.19576135763708</v>
+        <v>18.20987207596308</v>
       </c>
       <c r="C15">
-        <v>10.47191957164144</v>
+        <v>7.003721276713061</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>15.70128966943733</v>
+        <v>11.35835757982445</v>
       </c>
       <c r="F15">
-        <v>41.36352147200401</v>
+        <v>31.72872220678356</v>
       </c>
       <c r="G15">
-        <v>3.677175332385971</v>
+        <v>2.099472856395728</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,13 +1056,13 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>8.760561331448146</v>
+        <v>5.858816007336406</v>
       </c>
       <c r="K15">
-        <v>10.51873941048346</v>
+        <v>13.59112632740716</v>
       </c>
       <c r="L15">
-        <v>12.13317796006744</v>
+        <v>9.280496703385193</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>27.6734357948418</v>
+        <v>17.87040506142975</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.02407923381707</v>
+        <v>17.61409775226152</v>
       </c>
       <c r="C16">
-        <v>10.48475346605182</v>
+        <v>7.044625911888745</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>15.68708559075819</v>
+        <v>11.17212762785208</v>
       </c>
       <c r="F16">
-        <v>41.35394505421902</v>
+        <v>31.27495147289534</v>
       </c>
       <c r="G16">
-        <v>3.678345535646931</v>
+        <v>2.103008434274566</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,13 +1103,13 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>8.761633328891282</v>
+        <v>5.863160431051568</v>
       </c>
       <c r="K16">
-        <v>10.39866741317885</v>
+        <v>13.19669853609193</v>
       </c>
       <c r="L16">
-        <v>12.10768786037348</v>
+        <v>9.086457871747752</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>27.72770138096946</v>
+        <v>17.8924374680441</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.91834586353019</v>
+        <v>17.23969409755186</v>
       </c>
       <c r="C17">
-        <v>10.49281234506189</v>
+        <v>7.070071059040539</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>15.67898713965982</v>
+        <v>11.05792377173661</v>
       </c>
       <c r="F17">
-        <v>41.35051606263552</v>
+        <v>31.00126112029391</v>
       </c>
       <c r="G17">
-        <v>3.679079240790593</v>
+        <v>2.105196693609214</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,13 +1150,13 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>8.76234159375826</v>
+        <v>5.865928044071691</v>
       </c>
       <c r="K17">
-        <v>10.32463161150768</v>
+        <v>12.94928463648803</v>
       </c>
       <c r="L17">
-        <v>12.09245254828208</v>
+        <v>8.966398686697062</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>27.76241590499921</v>
+        <v>17.91112281399983</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.85740034907772</v>
+        <v>17.02105054173119</v>
       </c>
       <c r="C18">
-        <v>10.49751598785455</v>
+        <v>7.084836069772823</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>15.67455629565666</v>
+        <v>10.99226969168492</v>
       </c>
       <c r="F18">
-        <v>41.3494435763442</v>
+        <v>30.84558117148269</v>
       </c>
       <c r="G18">
-        <v>3.679507077648061</v>
+        <v>2.106462669015498</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,13 +1197,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>8.762767632307574</v>
+        <v>5.867557986427419</v>
       </c>
       <c r="K18">
-        <v>10.28192431621746</v>
+        <v>12.80497466003422</v>
       </c>
       <c r="L18">
-        <v>12.08383906019041</v>
+        <v>8.89698570482517</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>27.78290562513923</v>
+        <v>17.92370918985234</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.83674484835437</v>
+        <v>16.94645353600844</v>
       </c>
       <c r="C19">
-        <v>10.49912032007887</v>
+        <v>7.089857559839455</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>15.6730952018494</v>
+        <v>10.9700477211508</v>
       </c>
       <c r="F19">
-        <v>41.3492350669416</v>
+        <v>30.79317113290122</v>
       </c>
       <c r="G19">
-        <v>3.679652938340693</v>
+        <v>2.106892591923336</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,13 +1244,13 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>8.762915092522858</v>
+        <v>5.868116437827871</v>
       </c>
       <c r="K19">
-        <v>10.26744444955728</v>
+        <v>12.75576938692774</v>
       </c>
       <c r="L19">
-        <v>12.08094851073103</v>
+        <v>8.873423930250629</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>27.78993283440256</v>
+        <v>17.9282809043395</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.92961534178062</v>
+        <v>17.27989072960858</v>
       </c>
       <c r="C20">
-        <v>10.49194738892463</v>
+        <v>7.067348973822567</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>15.67982574552652</v>
+        <v>11.07007795979981</v>
       </c>
       <c r="F20">
-        <v>41.35078798016928</v>
+        <v>31.03021631095918</v>
       </c>
       <c r="G20">
-        <v>3.679000533656385</v>
+        <v>2.10496299498013</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,13 +1291,13 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>8.762264267458796</v>
+        <v>5.865629494895912</v>
       </c>
       <c r="K20">
-        <v>10.33252599070481</v>
+        <v>12.97582962714951</v>
       </c>
       <c r="L20">
-        <v>12.09405894279891</v>
+        <v>8.979216671207158</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>27.75866635871119</v>
+        <v>17.90894203748516</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.23994217210802</v>
+        <v>18.36094961485427</v>
       </c>
       <c r="C21">
-        <v>10.46866340644314</v>
+        <v>6.993268802959876</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>15.70514622225374</v>
+        <v>11.40643784048462</v>
       </c>
       <c r="F21">
-        <v>41.36674919478207</v>
+        <v>31.84730998412015</v>
       </c>
       <c r="G21">
-        <v>3.676878089446418</v>
+        <v>2.098565792232398</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>8.760300168599326</v>
+        <v>5.857725668745813</v>
       </c>
       <c r="K21">
-        <v>10.54961221379119</v>
+        <v>13.69127948532905</v>
       </c>
       <c r="L21">
-        <v>12.13988187598698</v>
+        <v>9.330263975551961</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>27.65986632321766</v>
+        <v>17.8663648687324</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.4411590505419</v>
+        <v>19.03856164690454</v>
       </c>
       <c r="C22">
-        <v>10.45405191748496</v>
+        <v>6.945997992204211</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>15.72369456558406</v>
+        <v>11.62620391445596</v>
       </c>
       <c r="F22">
-        <v>41.38517070115892</v>
+        <v>32.39643335579416</v>
       </c>
       <c r="G22">
-        <v>3.675542559214073</v>
+        <v>2.094444724655427</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,13 +1385,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>8.759181494309932</v>
+        <v>5.852889658207594</v>
       </c>
       <c r="K22">
-        <v>10.69009196030525</v>
+        <v>14.14110024665431</v>
       </c>
       <c r="L22">
-        <v>12.1711237821503</v>
+        <v>9.55614857729779</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>27.59996330219246</v>
+        <v>17.85621679216144</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.33393282769697</v>
+        <v>18.67953237646516</v>
       </c>
       <c r="C23">
-        <v>10.46179504728504</v>
+        <v>6.971122983543659</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>15.71361313189267</v>
+        <v>11.50893279177029</v>
       </c>
       <c r="F23">
-        <v>41.37460900603189</v>
+        <v>32.10199166275778</v>
       </c>
       <c r="G23">
-        <v>3.676250648864136</v>
+        <v>2.096639016797262</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>8.759763515246075</v>
+        <v>5.855441058095047</v>
       </c>
       <c r="K23">
-        <v>10.61525716881467</v>
+        <v>13.90264302376735</v>
       </c>
       <c r="L23">
-        <v>12.15433282571813</v>
+        <v>9.435929700493634</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>27.63150689461623</v>
+        <v>17.85995121539471</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.92452089781873</v>
+        <v>17.26172840825484</v>
       </c>
       <c r="C24">
-        <v>10.49233821600422</v>
+        <v>7.06857920403014</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>15.67944591052535</v>
+        <v>11.06458303717269</v>
       </c>
       <c r="F24">
-        <v>41.35066224604888</v>
+        <v>31.01712046857746</v>
       </c>
       <c r="G24">
-        <v>3.679036098396571</v>
+        <v>2.10506862541391</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,13 +1479,13 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>8.762299167951314</v>
+        <v>5.865764348007724</v>
       </c>
       <c r="K24">
-        <v>10.32895738432959</v>
+        <v>12.96383508026684</v>
       </c>
       <c r="L24">
-        <v>12.09333223823598</v>
+        <v>8.97342286899816</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>27.76035987193002</v>
+        <v>17.90992223743137</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.47819839485066</v>
+        <v>15.60612672588773</v>
       </c>
       <c r="C25">
-        <v>10.5279005507609</v>
+        <v>7.178665199101483</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>15.65128708814093</v>
+        <v>10.58679865671494</v>
       </c>
       <c r="F25">
-        <v>41.3592349115696</v>
+        <v>29.9136423378804</v>
       </c>
       <c r="G25">
-        <v>3.682263700534505</v>
+        <v>2.114445036702723</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,13 +1526,13 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>8.765748536840237</v>
+        <v>5.87836027657029</v>
       </c>
       <c r="K25">
-        <v>10.01559394146862</v>
+        <v>11.87458204092668</v>
       </c>
       <c r="L25">
-        <v>12.03326656059662</v>
+        <v>8.461135000235785</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>27.91933049282319</v>
+        <v>18.03342225123495</v>
       </c>
     </row>
   </sheetData>
